--- a/biology/Zoologie/Cacosternum_namaquense/Cacosternum_namaquense.xlsx
+++ b/biology/Zoologie/Cacosternum_namaquense/Cacosternum_namaquense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cacosternum namaquense est une espèce d'amphibiens de la famille des Pyxicephalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cacosternum namaquense est une espèce d'amphibiens de la famille des Pyxicephalidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le biome du Karoo succulent[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le biome du Karoo succulent :
 dans l'ouest de la province de Cap-du-Nord en Afrique du Sud ;
 dans le sud de la Namibie.
 Elle est absente le long des côtes atlantique.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Cacosternum namaquense[2] mesure 25 mm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Cacosternum namaquense mesure 25 mm.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de namaqu[aland] et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le Namaqualand.
 </t>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Werner, 1910 : Reptilia et Amphibia. Denkschriften, Medicinisch-naturwissenschaftliche Gesellschaft zu Jena, vol. 16, p. 279-370 (texte intégral).</t>
         </is>
